--- a/doc/DB定義書_ドキドキわくわく(仮).xlsx
+++ b/doc/DB定義書_ドキドキわくわく(仮).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D53EA-D087-4A08-BCF4-ABFA921F8203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B83523-7C20-4EC6-AC61-56506D4D50EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="16995" windowHeight="10545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="795" windowWidth="17130" windowHeight="9105" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -168,10 +168,6 @@
   </si>
   <si>
     <t>サイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AI</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -401,6 +397,17 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -859,7 +866,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,13 +888,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -895,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -909,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -942,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -957,13 +964,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -972,13 +979,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -987,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1249,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1261,40 +1268,40 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="6" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1305,35 +1312,39 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>44720</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1353,81 +1364,86 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="M9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
+      <c r="K10" s="3"/>
+      <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>user_id varchar (20),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
+      <c r="K11" s="3"/>
+      <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>password varchar (20)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1440,12 +1456,13 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
+      <c r="K12" s="3"/>
+      <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1458,12 +1475,13 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
+      <c r="K13" s="3"/>
+      <c r="M13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1476,12 +1494,13 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
+      <c r="K14" s="3"/>
+      <c r="M14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1494,12 +1513,13 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K15" s="3"/>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:M29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1512,12 +1532,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K16" s="3"/>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1530,12 +1551,13 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K17" s="3"/>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1548,12 +1570,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K18" s="3"/>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1566,12 +1589,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K19" s="3"/>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1584,12 +1608,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K20" s="3"/>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1602,12 +1627,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K21" s="3"/>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1620,12 +1646,13 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K22" s="3"/>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1638,12 +1665,13 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K23" s="3"/>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1656,12 +1684,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K24" s="3"/>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1674,12 +1703,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K25" s="3"/>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1692,12 +1722,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K26" s="3"/>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1710,12 +1741,13 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K27" s="3"/>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1728,12 +1760,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K28" s="3"/>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1746,14 +1779,15 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
+      <c r="K29" s="3"/>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M30" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1764,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37F7C13-28DF-445A-9F68-9F0587B76E8A}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1776,40 +1810,40 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="6" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1820,39 +1854,39 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1872,137 +1906,142 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="M9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table coordinate (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
+      <c r="K10" s="3"/>
+      <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>coordinate_id varchar (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
+      <c r="K11" s="3"/>
+      <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>season varchar (10),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
+      <c r="K12" s="3"/>
+      <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>purpose varchar (10),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
+      <c r="K13" s="3"/>
+      <c r="M13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">coordinate_image mediumblob </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2015,12 +2054,13 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
+      <c r="K14" s="3"/>
+      <c r="M14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2033,12 +2073,13 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K15" s="3"/>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:M29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2051,12 +2092,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K16" s="3"/>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2069,12 +2111,13 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K17" s="3"/>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2087,12 +2130,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K18" s="3"/>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2105,12 +2149,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K19" s="3"/>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2123,12 +2168,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K20" s="3"/>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2141,12 +2187,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K21" s="3"/>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2159,12 +2206,13 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K22" s="3"/>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2177,12 +2225,13 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K23" s="3"/>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2195,12 +2244,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K24" s="3"/>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2213,12 +2263,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K25" s="3"/>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2231,12 +2282,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K26" s="3"/>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2249,12 +2301,13 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K27" s="3"/>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2267,12 +2320,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K28" s="3"/>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2285,14 +2339,15 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
+      <c r="K29" s="3"/>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M30" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2303,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6CD51D-EFBF-4E87-8896-7B872A8574B2}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2315,40 +2370,40 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="6" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2359,35 +2414,39 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44720</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2407,83 +2466,88 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="M9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table used_item (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
+      <c r="K10" s="3"/>
+      <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>coordinate_id varchar (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
+      <c r="K11" s="3"/>
+      <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>item_id varchar (4)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2496,12 +2560,13 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
+      <c r="K12" s="3"/>
+      <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2514,12 +2579,13 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
+      <c r="K13" s="3"/>
+      <c r="M13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2532,12 +2598,13 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
+      <c r="K14" s="3"/>
+      <c r="M14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2550,12 +2617,13 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K15" s="3"/>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:M29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2568,12 +2636,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K16" s="3"/>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2586,12 +2655,13 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K17" s="3"/>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2604,12 +2674,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K18" s="3"/>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2622,12 +2693,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K19" s="3"/>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2640,12 +2712,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K20" s="3"/>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2658,12 +2731,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K21" s="3"/>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2676,12 +2750,13 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K22" s="3"/>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2694,12 +2769,13 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K23" s="3"/>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2712,12 +2788,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K24" s="3"/>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2730,12 +2807,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K25" s="3"/>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2748,12 +2826,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K26" s="3"/>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2766,12 +2845,13 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K27" s="3"/>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2784,12 +2864,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K28" s="3"/>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2802,14 +2883,15 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
+      <c r="K29" s="3"/>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M30" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2820,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B54456-FC55-4854-ACB5-EE54B00981B7}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2832,40 +2914,40 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="6" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2876,39 +2958,39 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2928,120 +3010,124 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="M9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table item (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
+      <c r="K10" s="3"/>
+      <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>item_id varchar (4),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
+      <c r="K11" s="3"/>
+      <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>item_image mediumblob ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
+      <c r="K12" s="3"/>
+      <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>category varchar (20),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -3049,27 +3135,28 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="M13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>brand varchar (50),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -3077,42 +3164,44 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="M14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>size varchar (20),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:M29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">day date </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3125,12 +3214,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K16" s="3"/>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3143,12 +3233,13 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K17" s="3"/>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3161,12 +3252,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K18" s="3"/>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3179,12 +3271,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K19" s="3"/>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3197,12 +3290,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K20" s="3"/>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3215,12 +3309,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K21" s="3"/>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3233,12 +3328,13 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K22" s="3"/>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3251,12 +3347,13 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K23" s="3"/>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3269,12 +3366,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K24" s="3"/>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3287,12 +3385,13 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K25" s="3"/>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3305,12 +3404,13 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K26" s="3"/>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3323,12 +3423,13 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K27" s="3"/>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3341,12 +3442,13 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K28" s="3"/>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3359,14 +3461,15 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
+      <c r="K29" s="3"/>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M30" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/DB定義書_ドキドキわくわく(仮).xlsx
+++ b/doc/DB定義書_ドキドキわくわく(仮).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B83523-7C20-4EC6-AC61-56506D4D50EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180F0AA-C99C-4567-A1A7-BA7F684BC5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="795" windowWidth="17130" windowHeight="9105" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="15" windowWidth="15990" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="73">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -309,10 +309,6 @@
     <rPh sb="7" eb="9">
       <t>ガゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mediumblob</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -408,6 +404,21 @@
   </si>
   <si>
     <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,7 +876,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -902,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -916,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -979,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1259,7 +1270,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1301,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1323,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1364,10 +1375,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
@@ -1391,7 +1402,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -1801,7 +1812,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1843,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1865,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1881,7 +1892,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>44720</v>
+        <v>44722</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1906,10 +1917,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
@@ -1930,30 +1941,30 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>coordinate_id varchar (4),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1961,28 +1972,28 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>season varchar (10),</v>
+        <v>coordinate_id varchar (4),</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1990,10 +2001,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -2011,7 +2022,7 @@
       <c r="K12" s="3"/>
       <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>purpose varchar (10),</v>
+        <v>season varchar (10),</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -2019,15 +2030,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2038,26 +2051,36 @@
       <c r="K13" s="3"/>
       <c r="M13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">coordinate_image mediumblob </v>
+        <v>purpose varchar (10),</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3">
+        <v>255</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="M14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>coordinate_image varchar (255)</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -2361,7 +2384,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2403,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2419,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2435,13 +2458,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>44720</v>
+        <v>44722</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2466,10 +2489,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
@@ -2490,21 +2513,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
         <v>33</v>
@@ -2513,7 +2536,7 @@
       <c r="K10" s="3"/>
       <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>coordinate_id varchar (4),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -2521,13 +2544,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
@@ -2544,26 +2567,38 @@
       <c r="K11" s="3"/>
       <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>item_id varchar (4)</v>
+        <v>coordinate_id varchar (4),</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>item_id varchar (4)</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -2904,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B54456-FC55-4854-ACB5-EE54B00981B7}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2947,7 +2982,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2969,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2985,7 +3020,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>44720</v>
+        <v>44722</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -3010,10 +3045,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
@@ -3034,30 +3069,30 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>item_id varchar (4),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -3065,26 +3100,28 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>item_image mediumblob ,</v>
+        <v>item_id varchar (4),</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -3092,16 +3129,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3113,7 +3150,7 @@
       <c r="K12" s="3"/>
       <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>category varchar (20),</v>
+        <v>item_image varchar (255),</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -3121,28 +3158,28 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="M13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>brand varchar (50),</v>
+        <v>category varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -3150,28 +3187,28 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="3"/>
       <c r="M14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>size varchar (20),</v>
+        <v>brand varchar (50),</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -3179,83 +3216,113 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="3"/>
       <c r="M15" t="str">
         <f t="shared" ref="M15:M29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">day date </v>
+        <v>size varchar (20),</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>flag varchar (30),</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>remarks varchar (300),</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">day date </v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
